--- a/D&A/verslag/grafieken.xlsx
+++ b/D&A/verslag/grafieken.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\GitHub\D-A\D&amp;A\verslag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorErik\CloudStation\Vakken\Datastructuren &amp; Algoritmiek\GitHub\D-A\D&amp;A\verslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>elementen</t>
   </si>
   <si>
     <t>tijd</t>
+  </si>
+  <si>
+    <t>Elementen</t>
+  </si>
+  <si>
+    <t>Tijd</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -268,11 +273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241185096"/>
-        <c:axId val="241181960"/>
+        <c:axId val="-1642403776"/>
+        <c:axId val="-1642407584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241185096"/>
+        <c:axId val="-1642403776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,12 +390,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241181960"/>
+        <c:crossAx val="-1642407584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241181960"/>
+        <c:axId val="-1642407584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +508,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241185096"/>
+        <c:crossAx val="-1642403776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242070384"/>
-        <c:axId val="242069600"/>
+        <c:axId val="-1448871712"/>
+        <c:axId val="-1448875520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242070384"/>
+        <c:axId val="-1448871712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,12 +851,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242069600"/>
+        <c:crossAx val="-1448875520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242069600"/>
+        <c:axId val="-1448875520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +969,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242070384"/>
+        <c:crossAx val="-1448871712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1185,11 +1190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="476247184"/>
-        <c:axId val="476247576"/>
+        <c:axId val="-1448869536"/>
+        <c:axId val="-1448881504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="476247184"/>
+        <c:axId val="-1448869536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,12 +1312,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476247576"/>
+        <c:crossAx val="-1448881504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476247576"/>
+        <c:axId val="-1448881504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1430,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476247184"/>
+        <c:crossAx val="-1448869536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1488,281 +1493,222 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$M$7:$M$19</c:f>
+              <c:f>Blad1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>1838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>13604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80000000</c:v>
+                  <c:v>59948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Alg 2</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$N$7:$N$19</c:f>
+              <c:f>Blad1!$B$17:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>409</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1838</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13604</c:v>
+                  <c:v>2542.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59948</c:v>
+                  <c:v>7416.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>alg 3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$O$7:$O$19</c:f>
+              <c:f>Blad1!$B$33:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1076.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2328</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2542.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7416.5</c:v>
+                  <c:v>4737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$P$7:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="8">
-                  <c:v>231.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1076.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2328</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4737</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1772,18 +1718,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="484009040"/>
-        <c:axId val="484009432"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1389987840"/>
+        <c:axId val="-1396447440"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="484009040"/>
+        <c:axId val="-1389987840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1792,8 +1752,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1820,7 +1780,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484009432"/>
+        <c:crossAx val="-1396447440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1828,12 +1788,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484009432"/>
+        <c:axId val="-1396447440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1854,8 +1814,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1879,7 +1845,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484009040"/>
+        <c:crossAx val="-1389987840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,38 +1857,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3669,7 +3603,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3696,8 +3630,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3798,7 +3732,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3830,10 +3764,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3873,22 +3807,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3993,8 +3928,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4126,19 +4061,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4152,6 +4088,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4266,19 +4213,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafiek 6"/>
+        <xdr:cNvPr id="10" name="Grafiek 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4559,18 +4506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4578,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4586,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -4594,7 +4542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -4602,7 +4550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -4610,15 +4558,21 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000</v>
       </c>
       <c r="B6">
         <v>13604</v>
       </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100000</v>
       </c>
@@ -4631,8 +4585,14 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M8">
         <v>5000</v>
       </c>
@@ -4640,7 +4600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M9">
         <v>10000</v>
       </c>
@@ -4648,7 +4608,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>20000</v>
       </c>
@@ -4656,7 +4616,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M11">
         <v>50000</v>
       </c>
@@ -4664,7 +4624,7 @@
         <v>13604</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12">
         <v>100000</v>
       </c>
@@ -4675,7 +4635,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M13">
         <v>500000</v>
       </c>
@@ -4683,15 +4643,24 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>1000000</v>
       </c>
       <c r="O14">
         <v>283</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>5000000</v>
       </c>
@@ -4701,8 +4670,17 @@
       <c r="P15">
         <v>231.5</v>
       </c>
+      <c r="S15">
+        <v>92</v>
+      </c>
+      <c r="T15">
+        <v>22.5</v>
+      </c>
+      <c r="U15">
+        <v>231.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16">
         <v>10000000</v>
       </c>
@@ -4712,8 +4690,17 @@
       <c r="P16">
         <v>502</v>
       </c>
+      <c r="S16">
+        <v>409</v>
+      </c>
+      <c r="T16">
+        <v>140</v>
+      </c>
+      <c r="U16">
+        <v>502</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4726,8 +4713,17 @@
       <c r="P17">
         <v>1076.5</v>
       </c>
+      <c r="S17">
+        <v>1838</v>
+      </c>
+      <c r="T17">
+        <v>283</v>
+      </c>
+      <c r="U17">
+        <v>1076.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100000</v>
       </c>
@@ -4740,8 +4736,17 @@
       <c r="P18">
         <v>2328</v>
       </c>
+      <c r="S18">
+        <v>13604</v>
+      </c>
+      <c r="T18">
+        <v>2542.5</v>
+      </c>
+      <c r="U18">
+        <v>2328</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>500000</v>
       </c>
@@ -4754,8 +4759,17 @@
       <c r="P19">
         <v>4737</v>
       </c>
+      <c r="S19">
+        <v>59948</v>
+      </c>
+      <c r="T19">
+        <v>7416.5</v>
+      </c>
+      <c r="U19">
+        <v>4737</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000000</v>
       </c>
@@ -4763,7 +4777,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5000000</v>
       </c>
@@ -4771,7 +4785,7 @@
         <v>2542.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000000</v>
       </c>
